--- a/BoundyShooter/BoundyShooter/Content/easy.xlsx
+++ b/BoundyShooter/BoundyShooter/Content/easy.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="15">
   <si>
     <t>EB</t>
   </si>
@@ -70,6 +70,18 @@
   </si>
   <si>
     <t>w</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ej</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ej</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ej</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -576,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N53" sqref="N53"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1804,8 +1816,8 @@
       <c r="G25">
         <v>0</v>
       </c>
-      <c r="H25">
-        <v>0</v>
+      <c r="H25" t="s">
+        <v>12</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1848,8 +1860,8 @@
       <c r="E26">
         <v>0</v>
       </c>
-      <c r="F26">
-        <v>0</v>
+      <c r="F26" t="s">
+        <v>12</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1860,8 +1872,8 @@
       <c r="I26">
         <v>0</v>
       </c>
-      <c r="J26">
-        <v>0</v>
+      <c r="J26" t="s">
+        <v>12</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -1904,8 +1916,8 @@
       <c r="G27">
         <v>0</v>
       </c>
-      <c r="H27">
-        <v>0</v>
+      <c r="H27" t="s">
+        <v>12</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1942,14 +1954,14 @@
       <c r="C28">
         <v>0</v>
       </c>
-      <c r="D28">
-        <v>0</v>
+      <c r="D28" t="s">
+        <v>12</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
-      <c r="F28">
-        <v>0</v>
+      <c r="F28" t="s">
+        <v>12</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1960,14 +1972,14 @@
       <c r="I28">
         <v>0</v>
       </c>
-      <c r="J28">
-        <v>0</v>
+      <c r="J28" t="s">
+        <v>12</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
-      <c r="L28">
-        <v>0</v>
+      <c r="L28" t="s">
+        <v>12</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -2004,8 +2016,8 @@
       <c r="G29">
         <v>0</v>
       </c>
-      <c r="H29">
-        <v>0</v>
+      <c r="H29" t="s">
+        <v>12</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -2048,8 +2060,8 @@
       <c r="E30">
         <v>0</v>
       </c>
-      <c r="F30">
-        <v>0</v>
+      <c r="F30" t="s">
+        <v>12</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -2060,8 +2072,8 @@
       <c r="I30">
         <v>0</v>
       </c>
-      <c r="J30">
-        <v>0</v>
+      <c r="J30" t="s">
+        <v>12</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -2104,8 +2116,8 @@
       <c r="G31">
         <v>0</v>
       </c>
-      <c r="H31">
-        <v>0</v>
+      <c r="H31" t="s">
+        <v>12</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -2263,8 +2275,8 @@
       <c r="J34">
         <v>0</v>
       </c>
-      <c r="K34">
-        <v>0</v>
+      <c r="K34" t="s">
+        <v>12</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -2404,8 +2416,8 @@
       <c r="G37">
         <v>0</v>
       </c>
-      <c r="H37">
-        <v>0</v>
+      <c r="H37" t="s">
+        <v>12</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -2545,8 +2557,8 @@
       <c r="D40">
         <v>0</v>
       </c>
-      <c r="E40">
-        <v>0</v>
+      <c r="E40" t="s">
+        <v>12</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -2945,8 +2957,8 @@
       <c r="D48">
         <v>0</v>
       </c>
-      <c r="E48">
-        <v>0</v>
+      <c r="E48" t="s">
+        <v>12</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -3157,8 +3169,8 @@
       <c r="H52">
         <v>0</v>
       </c>
-      <c r="I52">
-        <v>0</v>
+      <c r="I52" t="s">
+        <v>13</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -3648,8 +3660,8 @@
       <c r="E62">
         <v>0</v>
       </c>
-      <c r="F62">
-        <v>0</v>
+      <c r="F62" t="s">
+        <v>12</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -3663,8 +3675,8 @@
       <c r="J62">
         <v>0</v>
       </c>
-      <c r="K62">
-        <v>0</v>
+      <c r="K62" t="s">
+        <v>12</v>
       </c>
       <c r="L62">
         <v>0</v>
@@ -4457,8 +4469,8 @@
       <c r="H78">
         <v>0</v>
       </c>
-      <c r="I78">
-        <v>0</v>
+      <c r="I78" t="s">
+        <v>12</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -4607,8 +4619,8 @@
       <c r="H81">
         <v>0</v>
       </c>
-      <c r="I81">
-        <v>0</v>
+      <c r="I81" t="s">
+        <v>14</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -4757,8 +4769,8 @@
       <c r="H84">
         <v>0</v>
       </c>
-      <c r="I84">
-        <v>0</v>
+      <c r="I84" t="s">
+        <v>12</v>
       </c>
       <c r="J84">
         <v>0</v>
@@ -4857,8 +4869,8 @@
       <c r="H86">
         <v>0</v>
       </c>
-      <c r="I86" t="s">
-        <v>3</v>
+      <c r="I86">
+        <v>0</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -4907,8 +4919,8 @@
       <c r="H87">
         <v>0</v>
       </c>
-      <c r="I87">
-        <v>0</v>
+      <c r="I87" t="s">
+        <v>12</v>
       </c>
       <c r="J87">
         <v>0</v>
@@ -5157,8 +5169,8 @@
       <c r="H92">
         <v>0</v>
       </c>
-      <c r="I92">
-        <v>0</v>
+      <c r="I92" t="s">
+        <v>12</v>
       </c>
       <c r="J92">
         <v>0</v>
@@ -5166,8 +5178,8 @@
       <c r="K92">
         <v>0</v>
       </c>
-      <c r="L92">
-        <v>0</v>
+      <c r="L92" t="s">
+        <v>12</v>
       </c>
       <c r="M92">
         <v>0</v>
@@ -5251,8 +5263,8 @@
       <c r="F94">
         <v>0</v>
       </c>
-      <c r="G94">
-        <v>0</v>
+      <c r="G94" t="s">
+        <v>12</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -5260,8 +5272,8 @@
       <c r="I94">
         <v>0</v>
       </c>
-      <c r="J94">
-        <v>0</v>
+      <c r="J94" t="s">
+        <v>12</v>
       </c>
       <c r="K94">
         <v>0</v>
@@ -5351,11 +5363,11 @@
       <c r="F96">
         <v>0</v>
       </c>
-      <c r="G96" t="s">
-        <v>3</v>
-      </c>
-      <c r="H96">
-        <v>0</v>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96" t="s">
+        <v>12</v>
       </c>
       <c r="I96">
         <v>0</v>
@@ -5813,8 +5825,8 @@
       <c r="J105">
         <v>0</v>
       </c>
-      <c r="K105">
-        <v>0</v>
+      <c r="K105" t="s">
+        <v>12</v>
       </c>
       <c r="L105">
         <v>0</v>
@@ -5857,8 +5869,8 @@
       <c r="H106">
         <v>0</v>
       </c>
-      <c r="I106">
-        <v>0</v>
+      <c r="I106" t="s">
+        <v>12</v>
       </c>
       <c r="J106">
         <v>0</v>
@@ -5869,8 +5881,8 @@
       <c r="L106">
         <v>0</v>
       </c>
-      <c r="M106">
-        <v>0</v>
+      <c r="M106" t="s">
+        <v>12</v>
       </c>
       <c r="N106">
         <v>0</v>
@@ -5913,8 +5925,8 @@
       <c r="J107">
         <v>0</v>
       </c>
-      <c r="K107">
-        <v>0</v>
+      <c r="K107" t="s">
+        <v>12</v>
       </c>
       <c r="L107">
         <v>0</v>
@@ -6016,8 +6028,8 @@
       <c r="K109">
         <v>0</v>
       </c>
-      <c r="L109">
-        <v>0</v>
+      <c r="L109" t="s">
+        <v>12</v>
       </c>
       <c r="M109">
         <v>0</v>
@@ -6113,8 +6125,8 @@
       <c r="J111">
         <v>0</v>
       </c>
-      <c r="K111">
-        <v>0</v>
+      <c r="K111" t="s">
+        <v>12</v>
       </c>
       <c r="L111">
         <v>0</v>
@@ -6701,8 +6713,8 @@
       <c r="F123">
         <v>0</v>
       </c>
-      <c r="G123">
-        <v>0</v>
+      <c r="G123" t="s">
+        <v>12</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -6798,8 +6810,8 @@
       <c r="E125">
         <v>0</v>
       </c>
-      <c r="F125">
-        <v>0</v>
+      <c r="F125" t="s">
+        <v>12</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -6866,8 +6878,8 @@
       <c r="K126">
         <v>0</v>
       </c>
-      <c r="L126">
-        <v>0</v>
+      <c r="L126" t="s">
+        <v>12</v>
       </c>
       <c r="M126">
         <v>0</v>
@@ -6969,8 +6981,8 @@
       <c r="L128">
         <v>0</v>
       </c>
-      <c r="M128">
-        <v>0</v>
+      <c r="M128" t="s">
+        <v>12</v>
       </c>
       <c r="N128">
         <v>0</v>
@@ -7013,8 +7025,8 @@
       <c r="J129">
         <v>0</v>
       </c>
-      <c r="K129">
-        <v>0</v>
+      <c r="K129" t="s">
+        <v>13</v>
       </c>
       <c r="L129">
         <v>0</v>
@@ -7069,8 +7081,8 @@
       <c r="L130">
         <v>0</v>
       </c>
-      <c r="M130">
-        <v>0</v>
+      <c r="M130" t="s">
+        <v>12</v>
       </c>
       <c r="N130">
         <v>0</v>
@@ -7113,8 +7125,8 @@
       <c r="J131">
         <v>0</v>
       </c>
-      <c r="K131">
-        <v>0</v>
+      <c r="K131" t="s">
+        <v>12</v>
       </c>
       <c r="L131">
         <v>0</v>
@@ -7216,8 +7228,8 @@
       <c r="K133">
         <v>0</v>
       </c>
-      <c r="L133">
-        <v>0</v>
+      <c r="L133" t="s">
+        <v>12</v>
       </c>
       <c r="M133">
         <v>0</v>
@@ -7316,8 +7328,8 @@
       <c r="K135">
         <v>0</v>
       </c>
-      <c r="L135" t="s">
-        <v>3</v>
+      <c r="L135">
+        <v>0</v>
       </c>
       <c r="M135">
         <v>0</v>
@@ -7401,8 +7413,8 @@
       <c r="F137">
         <v>0</v>
       </c>
-      <c r="G137">
-        <v>0</v>
+      <c r="G137" t="s">
+        <v>12</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -7501,8 +7513,8 @@
       <c r="F139">
         <v>0</v>
       </c>
-      <c r="G139">
-        <v>0</v>
+      <c r="G139" t="s">
+        <v>12</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -7866,8 +7878,8 @@
       <c r="K146">
         <v>0</v>
       </c>
-      <c r="L146">
-        <v>0</v>
+      <c r="L146" t="s">
+        <v>12</v>
       </c>
       <c r="M146">
         <v>0</v>
@@ -7969,8 +7981,8 @@
       <c r="L148">
         <v>0</v>
       </c>
-      <c r="M148">
-        <v>0</v>
+      <c r="M148" t="s">
+        <v>12</v>
       </c>
       <c r="N148">
         <v>0</v>
@@ -8066,8 +8078,8 @@
       <c r="K150">
         <v>0</v>
       </c>
-      <c r="L150">
-        <v>0</v>
+      <c r="L150" t="s">
+        <v>12</v>
       </c>
       <c r="M150">
         <v>0</v>
@@ -8401,8 +8413,8 @@
       <c r="F157">
         <v>0</v>
       </c>
-      <c r="G157">
-        <v>0</v>
+      <c r="G157" t="s">
+        <v>12</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -8457,8 +8469,8 @@
       <c r="H158">
         <v>0</v>
       </c>
-      <c r="I158">
-        <v>0</v>
+      <c r="I158" t="s">
+        <v>12</v>
       </c>
       <c r="J158">
         <v>0</v>
@@ -8554,8 +8566,8 @@
       <c r="G160">
         <v>0</v>
       </c>
-      <c r="H160">
-        <v>0</v>
+      <c r="H160" t="s">
+        <v>12</v>
       </c>
       <c r="I160">
         <v>0</v>
@@ -8713,8 +8725,8 @@
       <c r="J163">
         <v>0</v>
       </c>
-      <c r="K163">
-        <v>0</v>
+      <c r="K163" t="s">
+        <v>12</v>
       </c>
       <c r="L163">
         <v>0</v>
@@ -8807,8 +8819,8 @@
       <c r="H165">
         <v>0</v>
       </c>
-      <c r="I165">
-        <v>0</v>
+      <c r="I165" t="s">
+        <v>12</v>
       </c>
       <c r="J165">
         <v>0</v>
@@ -8819,8 +8831,8 @@
       <c r="L165">
         <v>0</v>
       </c>
-      <c r="M165">
-        <v>0</v>
+      <c r="M165" t="s">
+        <v>12</v>
       </c>
       <c r="N165">
         <v>0</v>
@@ -8913,8 +8925,8 @@
       <c r="J167">
         <v>0</v>
       </c>
-      <c r="K167">
-        <v>0</v>
+      <c r="K167" t="s">
+        <v>12</v>
       </c>
       <c r="L167">
         <v>0</v>
@@ -9104,8 +9116,8 @@
       <c r="G171">
         <v>0</v>
       </c>
-      <c r="H171">
-        <v>0</v>
+      <c r="H171" t="s">
+        <v>12</v>
       </c>
       <c r="I171">
         <v>0</v>
@@ -9198,8 +9210,8 @@
       <c r="E173">
         <v>0</v>
       </c>
-      <c r="F173">
-        <v>0</v>
+      <c r="F173" t="s">
+        <v>12</v>
       </c>
       <c r="G173">
         <v>0</v>
@@ -9210,8 +9222,8 @@
       <c r="I173">
         <v>0</v>
       </c>
-      <c r="J173">
-        <v>0</v>
+      <c r="J173" t="s">
+        <v>12</v>
       </c>
       <c r="K173">
         <v>0</v>
@@ -9304,8 +9316,8 @@
       <c r="G175">
         <v>0</v>
       </c>
-      <c r="H175">
-        <v>0</v>
+      <c r="H175" t="s">
+        <v>12</v>
       </c>
       <c r="I175">
         <v>0</v>

--- a/BoundyShooter/BoundyShooter/Content/easy.xlsx
+++ b/BoundyShooter/BoundyShooter/Content/easy.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="17">
   <si>
     <t>EB</t>
   </si>
@@ -82,6 +82,14 @@
   </si>
   <si>
     <t>Ej</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ej</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EJ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -588,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H124" sqref="H124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3660,8 +3668,8 @@
       <c r="E62">
         <v>0</v>
       </c>
-      <c r="F62" t="s">
-        <v>12</v>
+      <c r="F62">
+        <v>0</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -3675,8 +3683,8 @@
       <c r="J62">
         <v>0</v>
       </c>
-      <c r="K62" t="s">
-        <v>12</v>
+      <c r="K62">
+        <v>0</v>
       </c>
       <c r="L62">
         <v>0</v>
@@ -3766,14 +3774,14 @@
       <c r="G64">
         <v>0</v>
       </c>
-      <c r="H64">
-        <v>0</v>
+      <c r="H64" t="s">
+        <v>16</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
-      <c r="J64">
-        <v>0</v>
+      <c r="J64" t="s">
+        <v>15</v>
       </c>
       <c r="K64">
         <v>0</v>
@@ -5869,8 +5877,8 @@
       <c r="H106">
         <v>0</v>
       </c>
-      <c r="I106" t="s">
-        <v>12</v>
+      <c r="I106">
+        <v>0</v>
       </c>
       <c r="J106">
         <v>0</v>
@@ -5881,8 +5889,8 @@
       <c r="L106">
         <v>0</v>
       </c>
-      <c r="M106" t="s">
-        <v>12</v>
+      <c r="M106">
+        <v>0</v>
       </c>
       <c r="N106">
         <v>0</v>
@@ -5925,8 +5933,8 @@
       <c r="J107">
         <v>0</v>
       </c>
-      <c r="K107" t="s">
-        <v>12</v>
+      <c r="K107">
+        <v>0</v>
       </c>
       <c r="L107">
         <v>0</v>
@@ -6125,8 +6133,8 @@
       <c r="J111">
         <v>0</v>
       </c>
-      <c r="K111" t="s">
-        <v>12</v>
+      <c r="K111">
+        <v>0</v>
       </c>
       <c r="L111">
         <v>0</v>
@@ -6713,8 +6721,8 @@
       <c r="F123">
         <v>0</v>
       </c>
-      <c r="G123" t="s">
-        <v>12</v>
+      <c r="G123">
+        <v>0</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -6810,14 +6818,14 @@
       <c r="E125">
         <v>0</v>
       </c>
-      <c r="F125" t="s">
-        <v>12</v>
+      <c r="F125">
+        <v>0</v>
       </c>
       <c r="G125">
         <v>0</v>
       </c>
-      <c r="H125" t="s">
-        <v>3</v>
+      <c r="H125">
+        <v>0</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -6878,8 +6886,8 @@
       <c r="K126">
         <v>0</v>
       </c>
-      <c r="L126" t="s">
-        <v>12</v>
+      <c r="L126">
+        <v>0</v>
       </c>
       <c r="M126">
         <v>0</v>
@@ -6981,8 +6989,8 @@
       <c r="L128">
         <v>0</v>
       </c>
-      <c r="M128" t="s">
-        <v>12</v>
+      <c r="M128">
+        <v>0</v>
       </c>
       <c r="N128">
         <v>0</v>
@@ -7228,8 +7236,8 @@
       <c r="K133">
         <v>0</v>
       </c>
-      <c r="L133" t="s">
-        <v>12</v>
+      <c r="L133">
+        <v>0</v>
       </c>
       <c r="M133">
         <v>0</v>
@@ -7878,8 +7886,8 @@
       <c r="K146">
         <v>0</v>
       </c>
-      <c r="L146" t="s">
-        <v>12</v>
+      <c r="L146">
+        <v>0</v>
       </c>
       <c r="M146">
         <v>0</v>
@@ -7981,8 +7989,8 @@
       <c r="L148">
         <v>0</v>
       </c>
-      <c r="M148" t="s">
-        <v>12</v>
+      <c r="M148">
+        <v>0</v>
       </c>
       <c r="N148">
         <v>0</v>
@@ -8078,8 +8086,8 @@
       <c r="K150">
         <v>0</v>
       </c>
-      <c r="L150" t="s">
-        <v>12</v>
+      <c r="L150">
+        <v>0</v>
       </c>
       <c r="M150">
         <v>0</v>
@@ -8316,8 +8324,8 @@
       <c r="G155">
         <v>0</v>
       </c>
-      <c r="H155" t="s">
-        <v>3</v>
+      <c r="H155">
+        <v>0</v>
       </c>
       <c r="I155">
         <v>0</v>
@@ -8369,8 +8377,8 @@
       <c r="H156">
         <v>0</v>
       </c>
-      <c r="I156">
-        <v>0</v>
+      <c r="I156" t="s">
+        <v>15</v>
       </c>
       <c r="J156">
         <v>0</v>
@@ -8413,8 +8421,8 @@
       <c r="F157">
         <v>0</v>
       </c>
-      <c r="G157" t="s">
-        <v>12</v>
+      <c r="G157">
+        <v>0</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -8566,8 +8574,8 @@
       <c r="G160">
         <v>0</v>
       </c>
-      <c r="H160" t="s">
-        <v>12</v>
+      <c r="H160">
+        <v>0</v>
       </c>
       <c r="I160">
         <v>0</v>
@@ -8819,8 +8827,8 @@
       <c r="H165">
         <v>0</v>
       </c>
-      <c r="I165" t="s">
-        <v>12</v>
+      <c r="I165">
+        <v>0</v>
       </c>
       <c r="J165">
         <v>0</v>
@@ -8831,8 +8839,8 @@
       <c r="L165">
         <v>0</v>
       </c>
-      <c r="M165" t="s">
-        <v>12</v>
+      <c r="M165">
+        <v>0</v>
       </c>
       <c r="N165">
         <v>0</v>
@@ -9210,8 +9218,8 @@
       <c r="E173">
         <v>0</v>
       </c>
-      <c r="F173" t="s">
-        <v>12</v>
+      <c r="F173">
+        <v>0</v>
       </c>
       <c r="G173">
         <v>0</v>
@@ -9222,8 +9230,8 @@
       <c r="I173">
         <v>0</v>
       </c>
-      <c r="J173" t="s">
-        <v>12</v>
+      <c r="J173">
+        <v>0</v>
       </c>
       <c r="K173">
         <v>0</v>

--- a/BoundyShooter/BoundyShooter/Content/easy.xlsx
+++ b/BoundyShooter/BoundyShooter/Content/easy.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="22">
   <si>
     <t>EB</t>
   </si>
@@ -38,10 +38,6 @@
   </si>
   <si>
     <t>Ej</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>w</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -89,7 +85,31 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>EJ</t>
+    <t>H</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ej</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -596,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H124" sqref="H124"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -659,8 +679,8 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>0</v>
+      <c r="C2" t="s">
+        <v>19</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -692,11 +712,11 @@
       <c r="M2" t="s">
         <v>5</v>
       </c>
-      <c r="N2">
-        <v>0</v>
+      <c r="N2" t="s">
+        <v>19</v>
       </c>
       <c r="O2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P2">
         <v>2</v>
@@ -710,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -743,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -759,8 +779,8 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4">
-        <v>0</v>
+      <c r="C4" t="s">
+        <v>19</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -792,8 +812,8 @@
       <c r="M4" t="s">
         <v>5</v>
       </c>
-      <c r="N4">
-        <v>0</v>
+      <c r="N4" t="s">
+        <v>19</v>
       </c>
       <c r="O4" t="s">
         <v>5</v>
@@ -810,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -843,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -857,10 +877,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -892,8 +912,8 @@
       <c r="M6" t="s">
         <v>5</v>
       </c>
-      <c r="N6">
-        <v>0</v>
+      <c r="N6" t="s">
+        <v>19</v>
       </c>
       <c r="O6" t="s">
         <v>5</v>
@@ -910,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -943,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -959,8 +979,8 @@
       <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C8">
-        <v>0</v>
+      <c r="C8" t="s">
+        <v>1</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
@@ -992,8 +1012,8 @@
       <c r="M8" t="s">
         <v>5</v>
       </c>
-      <c r="N8">
-        <v>0</v>
+      <c r="N8" t="s">
+        <v>1</v>
       </c>
       <c r="O8" t="s">
         <v>5</v>
@@ -1010,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1043,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -1059,8 +1079,8 @@
       <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="C10">
-        <v>0</v>
+      <c r="C10" t="s">
+        <v>1</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
@@ -1092,8 +1112,8 @@
       <c r="M10" t="s">
         <v>5</v>
       </c>
-      <c r="N10">
-        <v>0</v>
+      <c r="N10" t="s">
+        <v>1</v>
       </c>
       <c r="O10" t="s">
         <v>5</v>
@@ -1110,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1143,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -1159,8 +1179,8 @@
       <c r="B12" t="s">
         <v>5</v>
       </c>
-      <c r="C12">
-        <v>0</v>
+      <c r="C12" t="s">
+        <v>1</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
@@ -1192,8 +1212,8 @@
       <c r="M12" t="s">
         <v>5</v>
       </c>
-      <c r="N12">
-        <v>0</v>
+      <c r="N12" t="s">
+        <v>1</v>
       </c>
       <c r="O12" t="s">
         <v>5</v>
@@ -1825,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1869,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1881,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -1924,8 +1944,8 @@
       <c r="G27">
         <v>0</v>
       </c>
-      <c r="H27" t="s">
-        <v>12</v>
+      <c r="H27">
+        <v>0</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1963,31 +1983,31 @@
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
-      <c r="H28">
-        <v>0</v>
+      <c r="H28" t="s">
+        <v>15</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -2024,8 +2044,8 @@
       <c r="G29">
         <v>0</v>
       </c>
-      <c r="H29" t="s">
-        <v>12</v>
+      <c r="H29">
+        <v>0</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -2069,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -2081,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -2125,7 +2145,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -2284,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -2425,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -2566,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -2966,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -3178,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -3775,13 +3795,13 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K64">
         <v>0</v>
@@ -4113,7 +4133,7 @@
         <v>5</v>
       </c>
       <c r="D71" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E71" t="s">
         <v>5</v>
@@ -4478,7 +4498,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -4628,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -4778,7 +4798,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J84">
         <v>0</v>
@@ -4928,7 +4948,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J87">
         <v>0</v>
@@ -5178,7 +5198,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J92">
         <v>0</v>
@@ -5187,7 +5207,7 @@
         <v>0</v>
       </c>
       <c r="L92" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M92">
         <v>0</v>
@@ -5272,7 +5292,7 @@
         <v>0</v>
       </c>
       <c r="G94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -5281,7 +5301,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K94">
         <v>0</v>
@@ -5375,7 +5395,7 @@
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I96">
         <v>0</v>
@@ -5834,7 +5854,7 @@
         <v>0</v>
       </c>
       <c r="K105" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L105">
         <v>0</v>
@@ -6037,7 +6057,7 @@
         <v>0</v>
       </c>
       <c r="L109" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M109">
         <v>0</v>
@@ -6312,8 +6332,8 @@
       <c r="C115">
         <v>0</v>
       </c>
-      <c r="D115">
-        <v>0</v>
+      <c r="D115" t="s">
+        <v>15</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -7034,7 +7054,7 @@
         <v>0</v>
       </c>
       <c r="K129" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L129">
         <v>0</v>
@@ -7060,37 +7080,37 @@
         <v>5</v>
       </c>
       <c r="C130" t="s">
+        <v>10</v>
+      </c>
+      <c r="D130" t="s">
+        <v>5</v>
+      </c>
+      <c r="E130" t="s">
+        <v>5</v>
+      </c>
+      <c r="F130" t="s">
+        <v>5</v>
+      </c>
+      <c r="G130" t="s">
+        <v>5</v>
+      </c>
+      <c r="H130" t="s">
+        <v>10</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130" t="s">
         <v>11</v>
-      </c>
-      <c r="D130" t="s">
-        <v>5</v>
-      </c>
-      <c r="E130" t="s">
-        <v>5</v>
-      </c>
-      <c r="F130" t="s">
-        <v>5</v>
-      </c>
-      <c r="G130" t="s">
-        <v>5</v>
-      </c>
-      <c r="H130" t="s">
-        <v>11</v>
-      </c>
-      <c r="I130">
-        <v>0</v>
-      </c>
-      <c r="J130">
-        <v>0</v>
-      </c>
-      <c r="K130">
-        <v>0</v>
-      </c>
-      <c r="L130">
-        <v>0</v>
-      </c>
-      <c r="M130" t="s">
-        <v>12</v>
       </c>
       <c r="N130">
         <v>0</v>
@@ -7134,7 +7154,7 @@
         <v>0</v>
       </c>
       <c r="K131" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L131">
         <v>0</v>
@@ -7422,7 +7442,7 @@
         <v>0</v>
       </c>
       <c r="G137" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -7481,7 +7501,7 @@
         <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K138" t="s">
         <v>5</v>
@@ -7522,7 +7542,7 @@
         <v>0</v>
       </c>
       <c r="G139" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -7581,7 +7601,7 @@
         <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K140">
         <v>0</v>
@@ -7589,8 +7609,8 @@
       <c r="L140">
         <v>0</v>
       </c>
-      <c r="M140">
-        <v>0</v>
+      <c r="M140" t="s">
+        <v>15</v>
       </c>
       <c r="N140">
         <v>0</v>
@@ -7963,7 +7983,7 @@
         <v>5</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E148" t="s">
         <v>5</v>
@@ -8378,7 +8398,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J156">
         <v>0</v>
@@ -8442,8 +8462,8 @@
       <c r="M157">
         <v>0</v>
       </c>
-      <c r="N157">
-        <v>0</v>
+      <c r="N157" t="s">
+        <v>15</v>
       </c>
       <c r="O157">
         <v>0</v>
@@ -8478,7 +8498,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J158">
         <v>0</v>
@@ -8734,7 +8754,7 @@
         <v>0</v>
       </c>
       <c r="K163" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L163">
         <v>0</v>
@@ -8934,7 +8954,7 @@
         <v>0</v>
       </c>
       <c r="K167" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L167">
         <v>0</v>
@@ -9125,7 +9145,7 @@
         <v>0</v>
       </c>
       <c r="H171" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I171">
         <v>0</v>
@@ -9325,7 +9345,7 @@
         <v>0</v>
       </c>
       <c r="H175" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I175">
         <v>0</v>

--- a/BoundyShooter/BoundyShooter/Content/easy.xlsx
+++ b/BoundyShooter/BoundyShooter/Content/easy.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="22">
   <si>
     <t>EB</t>
   </si>
@@ -38,14 +38,6 @@
   </si>
   <si>
     <t>Ej</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>w</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>w</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -110,6 +102,14 @@
   </si>
   <si>
     <t>H</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -616,74 +616,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AF21" sqref="AF21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -709,17 +709,17 @@
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" t="s">
-        <v>7</v>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
@@ -727,46 +727,46 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3" t="s">
-        <v>15</v>
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3">
         <v>2</v>
@@ -776,14 +776,14 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -809,14 +809,14 @@
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="M4" t="s">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O4" t="s">
-        <v>5</v>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
       </c>
       <c r="P4">
         <v>2</v>
@@ -829,8 +829,8 @@
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5" t="s">
-        <v>15</v>
+      <c r="C5">
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -862,8 +862,8 @@
       <c r="M5">
         <v>0</v>
       </c>
-      <c r="N5" t="s">
-        <v>15</v>
+      <c r="N5">
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -913,7 +913,7 @@
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O6" t="s">
         <v>5</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -976,14 +976,14 @@
       <c r="A8">
         <v>2</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1009,14 +1009,14 @@
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>1</v>
-      </c>
-      <c r="O8" t="s">
-        <v>5</v>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
       </c>
       <c r="P8">
         <v>2</v>
@@ -1029,8 +1029,8 @@
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9" t="s">
-        <v>21</v>
+      <c r="C9">
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -1076,14 +1076,14 @@
       <c r="A10">
         <v>2</v>
       </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5</v>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1109,14 +1109,14 @@
       <c r="L10">
         <v>0</v>
       </c>
-      <c r="M10" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>1</v>
-      </c>
-      <c r="O10" t="s">
-        <v>5</v>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
       </c>
       <c r="P10">
         <v>2</v>
@@ -1130,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1163,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -1229,8 +1229,8 @@
       <c r="B13">
         <v>0</v>
       </c>
-      <c r="C13">
-        <v>0</v>
+      <c r="C13" t="s">
+        <v>20</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1262,8 +1262,8 @@
       <c r="M13">
         <v>0</v>
       </c>
-      <c r="N13">
-        <v>0</v>
+      <c r="N13" t="s">
+        <v>20</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1845,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -1983,31 +1983,31 @@
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -2145,7 +2145,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -3697,8 +3697,8 @@
       <c r="H62">
         <v>0</v>
       </c>
-      <c r="I62">
-        <v>0</v>
+      <c r="I62" t="s">
+        <v>19</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -3795,13 +3795,13 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K64">
         <v>0</v>
@@ -4133,7 +4133,7 @@
         <v>5</v>
       </c>
       <c r="D71" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E71" t="s">
         <v>5</v>
@@ -4498,7 +4498,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -4648,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -4798,7 +4798,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J84">
         <v>0</v>
@@ -4948,7 +4948,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J87">
         <v>0</v>
@@ -5198,7 +5198,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J92">
         <v>0</v>
@@ -5207,7 +5207,7 @@
         <v>0</v>
       </c>
       <c r="L92" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M92">
         <v>0</v>
@@ -5292,7 +5292,7 @@
         <v>0</v>
       </c>
       <c r="G94" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -5301,7 +5301,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K94">
         <v>0</v>
@@ -5395,7 +5395,7 @@
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I96">
         <v>0</v>
@@ -5854,7 +5854,7 @@
         <v>0</v>
       </c>
       <c r="K105" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L105">
         <v>0</v>
@@ -6057,7 +6057,7 @@
         <v>0</v>
       </c>
       <c r="L109" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M109">
         <v>0</v>
@@ -6333,7 +6333,7 @@
         <v>0</v>
       </c>
       <c r="D115" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -6456,8 +6456,8 @@
       <c r="K117">
         <v>0</v>
       </c>
-      <c r="L117">
-        <v>0</v>
+      <c r="L117" t="s">
+        <v>19</v>
       </c>
       <c r="M117">
         <v>0</v>
@@ -7054,7 +7054,7 @@
         <v>0</v>
       </c>
       <c r="K129" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L129">
         <v>0</v>
@@ -7080,7 +7080,7 @@
         <v>5</v>
       </c>
       <c r="C130" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D130" t="s">
         <v>5</v>
@@ -7095,7 +7095,7 @@
         <v>5</v>
       </c>
       <c r="H130" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I130">
         <v>0</v>
@@ -7110,7 +7110,7 @@
         <v>0</v>
       </c>
       <c r="M130" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N130">
         <v>0</v>
@@ -7154,7 +7154,7 @@
         <v>0</v>
       </c>
       <c r="K131" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L131">
         <v>0</v>
@@ -7442,7 +7442,7 @@
         <v>0</v>
       </c>
       <c r="G137" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -7501,7 +7501,7 @@
         <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K138" t="s">
         <v>5</v>
@@ -7542,7 +7542,7 @@
         <v>0</v>
       </c>
       <c r="G139" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -7601,7 +7601,7 @@
         <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K140">
         <v>0</v>
@@ -7610,7 +7610,7 @@
         <v>0</v>
       </c>
       <c r="M140" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N140">
         <v>0</v>
@@ -7983,7 +7983,7 @@
         <v>5</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E148" t="s">
         <v>5</v>
@@ -8398,7 +8398,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J156">
         <v>0</v>
@@ -8463,7 +8463,7 @@
         <v>0</v>
       </c>
       <c r="N157" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O157">
         <v>0</v>
@@ -8498,7 +8498,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J158">
         <v>0</v>
@@ -8754,7 +8754,7 @@
         <v>0</v>
       </c>
       <c r="K163" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L163">
         <v>0</v>
@@ -8954,7 +8954,7 @@
         <v>0</v>
       </c>
       <c r="K167" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L167">
         <v>0</v>
@@ -9145,7 +9145,7 @@
         <v>0</v>
       </c>
       <c r="H171" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I171">
         <v>0</v>
@@ -9345,7 +9345,7 @@
         <v>0</v>
       </c>
       <c r="H175" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I175">
         <v>0</v>
